--- a/lifegame仕様.xlsx
+++ b/lifegame仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\pleiades-4.8.0-java-win-32bit-jre_20180923\pleiades\workspace\game\src\main\java\lifegame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035E4682-ED44-4C18-9889-A5C616B73EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8584B-1AD9-4852-9DB0-030A0C3AF2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>プレイヤーがマスを移動する時はプレイヤー以外の位置座標を変更してマスを移動している</t>
     <rPh sb="9" eb="11">
@@ -573,6 +573,26 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓将来</t>
+    <rPh sb="1" eb="3">
+      <t>ショウライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるマスは周りのマスの情報を持っている</t>
+    <rPh sb="5" eb="6">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1569,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B15"/>
+  <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1602,38 +1622,53 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
